--- a/app/python_logic/RegistroPuerta.xlsx
+++ b/app/python_logic/RegistroPuerta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>cedula</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>2018-08-22 20:41:41.219185</t>
+  </si>
+  <si>
+    <t>2018-08-23 07:05:07.536776</t>
+  </si>
+  <si>
+    <t>2018-08-23 07:05:18.534758</t>
+  </si>
+  <si>
+    <t>2018-08-23 07:05:24.151285</t>
+  </si>
+  <si>
+    <t>2018-08-23 07:05:50.035375</t>
   </si>
 </sst>
 </file>
@@ -527,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1091,6 +1103,50 @@
         <v>51</v>
       </c>
     </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1020810810</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1020810810</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1020810810</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1020810810</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
